--- a/artfynd/A 24297-2020.xlsx
+++ b/artfynd/A 24297-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64230562</v>
+        <v>81392969</v>
       </c>
       <c r="B2" t="n">
         <v>95511</v>
@@ -716,7 +716,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Örnanäs-Gårdsjön, Sk</t>
+          <t>550 m NV Örnanäs, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -726,7 +726,7 @@
         <v>6241830.01606159</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1999-06-16</t>
+          <t>2014-06-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1999-06-16</t>
+          <t>2014-06-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Huperzia selago/3E8b4514/Örkened s:n/AgA/ /Agne Andersson,Hanaskog</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,25 +777,20 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>SkFlora    509999</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Stefan Andersson</t>
+          <t>Charlotte Wigermo</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Stefan Andersson</t>
+          <t>Lars Åkerman</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Skånes Flora (1989-2006)</t>
+          <t>Skånes Flora Millora 2008-2015</t>
         </is>
       </c>
     </row>
